--- a/tut05/output/0401CS28.xlsx
+++ b/tut05/output/0401CS28.xlsx
@@ -550,25 +550,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.816326530612245</v>
+        <v>6.82</v>
       </c>
       <c r="C6" t="n">
-        <v>6.590909090909091</v>
+        <v>6.59</v>
       </c>
       <c r="D6" t="n">
-        <v>7.186046511627907</v>
+        <v>7.19</v>
       </c>
       <c r="E6" t="n">
-        <v>6.021276595744681</v>
+        <v>6.02</v>
       </c>
       <c r="F6" t="n">
-        <v>5.166666666666667</v>
+        <v>5.17</v>
       </c>
       <c r="G6" t="n">
-        <v>5.475</v>
+        <v>5.47</v>
       </c>
       <c r="H6" t="n">
-        <v>6.26829268292683</v>
+        <v>6.27</v>
       </c>
       <c r="I6" t="n">
         <v>6.3</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.816326530612245</v>
+        <v>6.82</v>
       </c>
       <c r="C8" t="n">
-        <v>6.709677419354839</v>
+        <v>6.71</v>
       </c>
       <c r="D8" t="n">
-        <v>6.860294117647059</v>
+        <v>6.86</v>
       </c>
       <c r="E8" t="n">
-        <v>6.644808743169399</v>
+        <v>6.64</v>
       </c>
       <c r="F8" t="n">
-        <v>6.368888888888889</v>
+        <v>6.37</v>
       </c>
       <c r="G8" t="n">
-        <v>6.233962264150944</v>
+        <v>6.23</v>
       </c>
       <c r="H8" t="n">
-        <v>6.238562091503268</v>
+        <v>6.24</v>
       </c>
       <c r="I8" t="n">
-        <v>6.245664739884393</v>
+        <v>6.25</v>
       </c>
     </row>
   </sheetData>
